--- a/Teacher/Server/HEALTHKING php 명세서.xlsx
+++ b/Teacher/Server/HEALTHKING php 명세서.xlsx
@@ -869,7 +869,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Teacher/Server/HEALTHKING php 명세서.xlsx
+++ b/Teacher/Server/HEALTHKING php 명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>GetAgileAvgRecord</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>RecordUnique</t>
-  </si>
-  <si>
-    <t>StudentID</t>
   </si>
   <si>
     <t>Date</t>
@@ -869,7 +866,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -884,22 +881,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
       <c r="A1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -907,32 +904,32 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>14</v>
@@ -944,10 +941,10 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -956,10 +953,10 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -968,10 +965,10 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -980,10 +977,10 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -992,7 +989,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
@@ -1004,10 +1001,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1016,10 +1013,10 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1027,19 +1024,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1051,7 +1048,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1075,50 +1072,50 @@
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>53</v>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1128,77 +1125,85 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1208,288 +1213,288 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>53</v>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="E38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
@@ -1498,125 +1503,81 @@
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="9" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
+      <c r="D48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1"/>

--- a/Teacher/Server/HEALTHKING php 명세서.xlsx
+++ b/Teacher/Server/HEALTHKING php 명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
   <si>
     <t>GetAgileAvgRecord</t>
   </si>
@@ -301,6 +301,18 @@
   </si>
   <si>
     <t>Return 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExistFinishedMissionOfStudent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생이 미션완료했는지 여부 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -865,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1578,6 +1590,38 @@
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1"/>

--- a/Teacher/Server/HEALTHKING php 명세서.xlsx
+++ b/Teacher/Server/HEALTHKING php 명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
   <si>
     <t>GetAgileAvgRecord</t>
   </si>
@@ -313,6 +313,31 @@
   </si>
   <si>
     <t>Exist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteCardiRecord</t>
+  </si>
+  <si>
+    <t>DeleteAgileRecord</t>
+  </si>
+  <si>
+    <t>DeleteMuscRecord</t>
+  </si>
+  <si>
+    <t>심폐지구력 기록, 바퀴당 기록 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순발력 기록 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근력근지구력 기록 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordUnique</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,13 +541,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +600,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -892,744 +920,792 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
+      <c r="D37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
+      <c r="D41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
+      <c r="D44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="9" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="9" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="A52" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Teacher/Server/HEALTHKING php 명세서.xlsx
+++ b/Teacher/Server/HEALTHKING php 명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
   <si>
     <t>GetAgileAvgRecord</t>
   </si>
@@ -541,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +606,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1704,8 +1707,12 @@
       <c r="D53" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
+      <c r="E53" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Teacher/Server/HEALTHKING php 명세서.xlsx
+++ b/Teacher/Server/HEALTHKING php 명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>GetAgileAvgRecord</t>
   </si>
@@ -338,6 +338,10 @@
   </si>
   <si>
     <t>RecordUnique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -908,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -987,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -999,7 +1003,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
